--- a/etl/scripts/indicators.xlsx
+++ b/etl/scripts/indicators.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>concept_name</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>Emissions Transfers Statistical Difference</t>
+  </si>
+  <si>
+    <t>Territorial Emissions by Bunkers</t>
+  </si>
+  <si>
+    <t>Consumption Emissions by Bunkers</t>
+  </si>
+  <si>
+    <t>Emissions Transfers by Bunkers</t>
   </si>
 </sst>
 </file>
@@ -118,11 +127,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,31 +153,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,82 +170,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +185,65 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -281,8 +251,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,175 +305,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,35 +493,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +513,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,17 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,145 +598,145 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1066,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -1250,6 +1252,21 @@
         <v>31</v>
       </c>
     </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/etl/scripts/indicators.xlsx
+++ b/etl/scripts/indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188D75F8-9213-4D0C-A9EB-512EF14FAC36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE40150-63C8-4B31-B550-BA080E00D9AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="27990" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="27915" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>concept_name</t>
   </si>
@@ -125,7 +125,11 @@
   </si>
   <si>
     <t>historical cement carbonation sink</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historical fossil emissions excluding carbonation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -141,26 +145,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -211,24 +219,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,212 +515,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="82" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="80.5" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="27.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="82" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="80.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
